--- a/Analysis/Multiple Win Rate Analysis.xlsx
+++ b/Analysis/Multiple Win Rate Analysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dipiq\Documents\Visual Studio 2017\Projects\Game winning chance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielKaschel\Source\Repos\favored-win-chances\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,7 +111,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -161,6 +161,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -176,6 +179,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -191,6 +197,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -206,6 +215,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -221,6 +233,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -236,6 +251,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -251,6 +269,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -266,6 +287,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -281,6 +305,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -296,6 +323,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -311,6 +341,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -326,6 +359,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -476,6 +512,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -491,6 +530,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -506,6 +548,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -521,6 +566,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -536,6 +584,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -551,6 +602,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -640,34 +694,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.30157666666666666</c:v>
+                  <c:v>0.30285200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22026999999999999</c:v>
+                  <c:v>0.22012899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16697333333333333</c:v>
+                  <c:v>0.16692199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13017666666666666</c:v>
+                  <c:v>0.13109299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10285</c:v>
+                  <c:v>0.102148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1506666666666672E-2</c:v>
+                  <c:v>8.1501000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.565E-2</c:v>
+                  <c:v>6.5193000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.247333333333333E-2</c:v>
+                  <c:v>5.2909999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2236666666666665E-2</c:v>
+                  <c:v>4.2333000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4506666666666665E-2</c:v>
+                  <c:v>3.4915000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +742,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,34 +804,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.35493000000000002</c:v>
+                  <c:v>0.40414499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28759000000000001</c:v>
+                  <c:v>0.357964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24010000000000001</c:v>
+                  <c:v>0.32515300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20502000000000001</c:v>
+                  <c:v>0.29896699999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17857000000000001</c:v>
+                  <c:v>0.27494600000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15448999999999999</c:v>
+                  <c:v>0.25528499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13489666666666666</c:v>
+                  <c:v>0.23788100000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11885666666666667</c:v>
+                  <c:v>0.222854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10508333333333333</c:v>
+                  <c:v>0.209206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3310000000000004E-2</c:v>
+                  <c:v>0.19552800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,7 +852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -860,34 +914,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.40426000000000001</c:v>
+                  <c:v>0.50465599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35838999999999999</c:v>
+                  <c:v>0.50774900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32316333333333336</c:v>
+                  <c:v>0.50904899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29728666666666664</c:v>
+                  <c:v>0.51125100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27369333333333334</c:v>
+                  <c:v>0.51278299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25596333333333332</c:v>
+                  <c:v>0.51438200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23704666666666666</c:v>
+                  <c:v>0.51451499999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22333</c:v>
+                  <c:v>0.51576699999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20846000000000001</c:v>
+                  <c:v>0.51688500000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19565666666666667</c:v>
+                  <c:v>0.51779600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +962,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -970,34 +1024,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45528333333333332</c:v>
+                  <c:v>0.60682400000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43215999999999999</c:v>
+                  <c:v>0.65756400000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41591</c:v>
+                  <c:v>0.69349899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40205666666666667</c:v>
+                  <c:v>0.72135800000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38980333333333334</c:v>
+                  <c:v>0.74555099999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37876333333333334</c:v>
+                  <c:v>0.765926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36928666666666665</c:v>
+                  <c:v>0.78491999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36052333333333331</c:v>
+                  <c:v>0.80139499999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35070000000000001</c:v>
+                  <c:v>0.815612</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34365333333333331</c:v>
+                  <c:v>0.82848999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1072,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1080,34 +1134,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.50751666666666662</c:v>
+                  <c:v>0.706148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50810999999999995</c:v>
+                  <c:v>0.79275399999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50778999999999996</c:v>
+                  <c:v>0.84632700000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51133333333333331</c:v>
+                  <c:v>0.88342600000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51173999999999997</c:v>
+                  <c:v>0.90946000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51406333333333332</c:v>
+                  <c:v>0.92963499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51416666666666666</c:v>
+                  <c:v>0.94475399999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51651666666666662</c:v>
+                  <c:v>0.95622200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51742333333333335</c:v>
+                  <c:v>0.96518400000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51755333333333331</c:v>
+                  <c:v>0.97196099999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,452 +1170,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001A-717B-45A3-9145-17A73AF4C3D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$3:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$G$5:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.55386666666666662</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58248333333333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60343333333333338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62040666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63604000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64737</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65969333333333335</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67080333333333331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68113666666666661</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6890033333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-717B-45A3-9145-17A73AF4C3D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$3:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$5:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.60575000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65591999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69320999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7220333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74550000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.76642999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7860166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80021333333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81593000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82845666666666662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-717B-45A3-9145-17A73AF4C3D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$I$5:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.65629666666666664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72904999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80930666666666662</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84039333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86288333333333334</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88145666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89666999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90995999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92178333333333329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-717B-45A3-9145-17A73AF4C3D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$J$3:$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$J$5:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.70735666666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79287666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84597333333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88184333333333331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90864666666666671</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92956000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94396999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95520666666666665</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96531333333333336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97255999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-717B-45A3-9145-17A73AF4C3D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2382,7 +1990,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Kaschel" refreshedDate="43044.717823032406" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="111" xr:uid="{A2153D2C-C115-4E7A-B660-057AFDAA3840}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Kaschel" refreshedDate="43045.480687037038" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="111" xr:uid="{A2153D2C-C115-4E7A-B660-057AFDAA3840}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:E1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -2405,26 +2013,26 @@
     <cacheField name="Win Chance" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.3" maxValue="75" count="17">
         <n v="30"/>
-        <n v="35"/>
         <n v="40"/>
-        <n v="45"/>
         <n v="50"/>
-        <n v="55"/>
         <n v="60"/>
-        <n v="65"/>
         <n v="70"/>
         <m/>
         <n v="75" u="1"/>
         <n v="0.6" u="1"/>
         <n v="0.7" u="1"/>
         <n v="0.3" u="1"/>
+        <n v="65" u="1"/>
+        <n v="35" u="1"/>
         <n v="25" u="1"/>
         <n v="0.4" u="1"/>
+        <n v="45" u="1"/>
         <n v="0.5" u="1"/>
+        <n v="55" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Set Win Pct" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.4506666666666665E-2" maxValue="0.97255999999999998"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.4915000000000002E-2" maxValue="0.97196099999999996"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2440,564 +2048,564 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="0.30157666666666666"/>
+    <n v="0.30285200000000001"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="0.35493000000000002"/>
+    <n v="0.40414499999999998"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="0.40426000000000001"/>
+    <n v="0.50465599999999999"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="0.45528333333333332"/>
+    <n v="0.60682400000000003"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="0.50751666666666662"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0.55386666666666662"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="0.60575000000000001"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0.65629666666666664"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="8"/>
-    <n v="0.70735666666666663"/>
+    <n v="0.706148"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="0.22026999999999999"/>
+    <n v="0.22012899999999999"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="0.28759000000000001"/>
+    <n v="0.357964"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="0.35838999999999999"/>
+    <n v="0.50774900000000001"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="0.43215999999999999"/>
+    <n v="0.65756400000000004"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="0.50810999999999995"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="0.58248333333333335"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="0.65591999999999995"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="0.72904999999999998"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="0.79287666666666667"/>
+    <n v="0.79275399999999996"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="0.16697333333333333"/>
+    <n v="0.16692199999999999"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="0.24010000000000001"/>
+    <n v="0.32515300000000003"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="0.32316333333333336"/>
+    <n v="0.50904899999999997"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="0.41591"/>
+    <n v="0.69349899999999998"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="0.50778999999999996"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <n v="0.60343333333333338"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <n v="0.69320999999999999"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <n v="0.77480000000000004"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <n v="0.84597333333333335"/>
+    <n v="0.84632700000000005"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="0.13017666666666666"/>
+    <n v="0.13109299999999999"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="0.20502000000000001"/>
+    <n v="0.29896699999999998"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="0.29728666666666664"/>
+    <n v="0.51125100000000001"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="0.40205666666666667"/>
+    <n v="0.72135800000000005"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="0.51133333333333331"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <n v="0.62040666666666666"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <n v="0.7220333333333333"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <n v="0.80930666666666662"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <n v="0.88184333333333331"/>
+    <n v="0.88342600000000004"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="0.10285"/>
+    <n v="0.102148"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="0.17857000000000001"/>
+    <n v="0.27494600000000002"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="0.27369333333333334"/>
+    <n v="0.51278299999999999"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="0.38980333333333334"/>
+    <n v="0.74555099999999996"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="0.51173999999999997"/>
-  </r>
-  <r>
+    <n v="0.90946000000000005"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="8.1501000000000004E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="0.25528499999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="0.51438200000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="0.765926"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="4"/>
-    <x v="5"/>
-    <n v="0.63604000000000005"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="6"/>
-    <n v="0.74550000000000005"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="7"/>
-    <n v="0.84039333333333333"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="8"/>
-    <n v="0.90864666666666671"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="8.1506666666666672E-2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="0.15448999999999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="0.25596333333333332"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <n v="0.37876333333333334"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <n v="0.51406333333333332"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="0.64737"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <n v="0.76642999999999994"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="7"/>
-    <n v="0.86288333333333334"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="8"/>
-    <n v="0.92956000000000005"/>
+    <n v="0.92963499999999999"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <n v="6.565E-2"/>
+    <n v="6.5193000000000001E-2"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
-    <n v="0.13489666666666666"/>
+    <n v="0.23788100000000001"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
-    <n v="0.23704666666666666"/>
+    <n v="0.51451499999999994"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
-    <n v="0.36928666666666665"/>
+    <n v="0.78491999999999995"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
-    <n v="0.51416666666666666"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <n v="0.65969333333333335"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="0.7860166666666667"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <n v="0.88145666666666667"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="8"/>
-    <n v="0.94396999999999998"/>
+    <n v="0.94475399999999998"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
-    <n v="5.247333333333333E-2"/>
+    <n v="5.2909999999999999E-2"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
-    <n v="0.11885666666666667"/>
+    <n v="0.222854"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
-    <n v="0.22333"/>
+    <n v="0.51576699999999998"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
-    <n v="0.36052333333333331"/>
+    <n v="0.80139499999999997"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <n v="0.51651666666666662"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="5"/>
-    <n v="0.67080333333333331"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-    <n v="0.80021333333333333"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="0.89666999999999997"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="8"/>
-    <n v="0.95520666666666665"/>
+    <n v="0.95622200000000002"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
-    <n v="4.2236666666666665E-2"/>
+    <n v="4.2333000000000003E-2"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
-    <n v="0.10508333333333333"/>
+    <n v="0.209206"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
-    <n v="0.20846000000000001"/>
+    <n v="0.51688500000000004"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
-    <n v="0.35070000000000001"/>
+    <n v="0.815612"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
-    <n v="0.51742333333333335"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="5"/>
-    <n v="0.68113666666666661"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <n v="0.81593000000000004"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="7"/>
-    <n v="0.90995999999999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <n v="0.96531333333333336"/>
+    <n v="0.96518400000000004"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
-    <n v="3.4506666666666665E-2"/>
+    <n v="3.4915000000000002E-2"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
-    <n v="9.3310000000000004E-2"/>
+    <n v="0.19552800000000001"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
-    <n v="0.19565666666666667"/>
+    <n v="0.51779600000000003"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
-    <n v="0.34365333333333331"/>
+    <n v="0.82848999999999995"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
-    <n v="0.51755333333333331"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="5"/>
-    <n v="0.6890033333333333"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="6"/>
-    <n v="0.82845666666666662"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <n v="0.92178333333333329"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="8"/>
-    <n v="0.97255999999999998"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
-    <m/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="9"/>
+    <n v="0.97196099999999996"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70A39EC9-B9E1-4E57-8A1B-22F49A4B51E9}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" colHeaderCaption=".">
-  <location ref="A3:K14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70A39EC9-B9E1-4E57-8A1B-22F49A4B51E9}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" colHeaderCaption=".">
+  <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="12">
@@ -3017,23 +2625,23 @@
     </pivotField>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="18">
+        <item m="1" x="12"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
         <item m="1" x="14"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
+        <item m="1" x="16"/>
         <item x="3"/>
+        <item m="1" x="10"/>
         <item x="4"/>
+        <item m="1" x="6"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item x="9"/>
+        <item m="1" x="9"/>
         <item m="1" x="13"/>
         <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3077,30 +2685,18 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="10">
+  <colItems count="6">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i>
       <x v="9"/>
@@ -3773,7 +3369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F463D8-4A79-4496-BBD4-7FC0217D281F}">
-  <dimension ref="A3:K14"/>
+  <dimension ref="A3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -3782,13 +3378,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3796,7 +3394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3804,381 +3402,249 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>55</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>65</v>
-      </c>
-      <c r="J4">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>0.30157666666666666</v>
+        <v>0.30285200000000001</v>
       </c>
       <c r="C5" s="4">
-        <v>0.35493000000000002</v>
+        <v>0.40414499999999998</v>
       </c>
       <c r="D5" s="4">
-        <v>0.40426000000000001</v>
+        <v>0.50465599999999999</v>
       </c>
       <c r="E5" s="4">
-        <v>0.45528333333333332</v>
+        <v>0.60682400000000003</v>
       </c>
       <c r="F5" s="4">
-        <v>0.50751666666666662</v>
+        <v>0.706148</v>
       </c>
       <c r="G5" s="4">
-        <v>0.55386666666666662</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.60575000000000001</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.65629666666666664</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.70735666666666663</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4.5468366666666657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5246250000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>0.22026999999999999</v>
+        <v>0.22012899999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>0.28759000000000001</v>
+        <v>0.357964</v>
       </c>
       <c r="D6" s="4">
-        <v>0.35838999999999999</v>
+        <v>0.50774900000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>0.43215999999999999</v>
+        <v>0.65756400000000004</v>
       </c>
       <c r="F6" s="4">
-        <v>0.50810999999999995</v>
+        <v>0.79275399999999996</v>
       </c>
       <c r="G6" s="4">
-        <v>0.58248333333333335</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.65591999999999995</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.72904999999999998</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.79287666666666667</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4.5668499999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5361599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>0.16697333333333333</v>
+        <v>0.16692199999999999</v>
       </c>
       <c r="C7" s="4">
-        <v>0.24010000000000001</v>
+        <v>0.32515300000000003</v>
       </c>
       <c r="D7" s="4">
-        <v>0.32316333333333336</v>
+        <v>0.50904899999999997</v>
       </c>
       <c r="E7" s="4">
-        <v>0.41591</v>
+        <v>0.69349899999999998</v>
       </c>
       <c r="F7" s="4">
-        <v>0.50778999999999996</v>
+        <v>0.84632700000000005</v>
       </c>
       <c r="G7" s="4">
-        <v>0.60343333333333338</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.69320999999999999</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.77480000000000004</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.84597333333333335</v>
-      </c>
-      <c r="K7" s="4">
-        <v>4.5713533333333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.54095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.13017666666666666</v>
+        <v>0.13109299999999999</v>
       </c>
       <c r="C8" s="4">
-        <v>0.20502000000000001</v>
+        <v>0.29896699999999998</v>
       </c>
       <c r="D8" s="4">
-        <v>0.29728666666666664</v>
+        <v>0.51125100000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>0.40205666666666667</v>
+        <v>0.72135800000000005</v>
       </c>
       <c r="F8" s="4">
-        <v>0.51133333333333331</v>
+        <v>0.88342600000000004</v>
       </c>
       <c r="G8" s="4">
-        <v>0.62040666666666666</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.7220333333333333</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.80930666666666662</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.88184333333333331</v>
-      </c>
-      <c r="K8" s="4">
-        <v>4.579463333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5460950000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>0.10285</v>
+        <v>0.102148</v>
       </c>
       <c r="C9" s="4">
-        <v>0.17857000000000001</v>
+        <v>0.27494600000000002</v>
       </c>
       <c r="D9" s="4">
-        <v>0.27369333333333334</v>
+        <v>0.51278299999999999</v>
       </c>
       <c r="E9" s="4">
-        <v>0.38980333333333334</v>
+        <v>0.74555099999999996</v>
       </c>
       <c r="F9" s="4">
-        <v>0.51173999999999997</v>
+        <v>0.90946000000000005</v>
       </c>
       <c r="G9" s="4">
-        <v>0.63604000000000005</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.84039333333333333</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.90864666666666671</v>
-      </c>
-      <c r="K9" s="4">
-        <v>4.5872366666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5448880000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>8.1506666666666672E-2</v>
+        <v>8.1501000000000004E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>0.15448999999999999</v>
+        <v>0.25528499999999998</v>
       </c>
       <c r="D10" s="4">
-        <v>0.25596333333333332</v>
+        <v>0.51438200000000001</v>
       </c>
       <c r="E10" s="4">
-        <v>0.37876333333333334</v>
+        <v>0.765926</v>
       </c>
       <c r="F10" s="4">
-        <v>0.51406333333333332</v>
+        <v>0.92963499999999999</v>
       </c>
       <c r="G10" s="4">
-        <v>0.64737</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.76642999999999994</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.86288333333333334</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.92956000000000005</v>
-      </c>
-      <c r="K10" s="4">
-        <v>4.5910299999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.546729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>13</v>
       </c>
       <c r="B11" s="4">
-        <v>6.565E-2</v>
+        <v>6.5193000000000001E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>0.13489666666666666</v>
+        <v>0.23788100000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>0.23704666666666666</v>
+        <v>0.51451499999999994</v>
       </c>
       <c r="E11" s="4">
-        <v>0.36928666666666665</v>
+        <v>0.78491999999999995</v>
       </c>
       <c r="F11" s="4">
-        <v>0.51416666666666666</v>
+        <v>0.94475399999999998</v>
       </c>
       <c r="G11" s="4">
-        <v>0.65969333333333335</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.7860166666666667</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.88145666666666667</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.94396999999999998</v>
-      </c>
-      <c r="K11" s="4">
-        <v>4.5921833333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5472630000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>5.247333333333333E-2</v>
+        <v>5.2909999999999999E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>0.11885666666666667</v>
+        <v>0.222854</v>
       </c>
       <c r="D12" s="4">
-        <v>0.22333</v>
+        <v>0.51576699999999998</v>
       </c>
       <c r="E12" s="4">
-        <v>0.36052333333333331</v>
+        <v>0.80139499999999997</v>
       </c>
       <c r="F12" s="4">
-        <v>0.51651666666666662</v>
+        <v>0.95622200000000002</v>
       </c>
       <c r="G12" s="4">
-        <v>0.67080333333333331</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.80021333333333333</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.89666999999999997</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.95520666666666665</v>
-      </c>
-      <c r="K12" s="4">
-        <v>4.5945933333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5491479999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>17</v>
       </c>
       <c r="B13" s="4">
-        <v>4.2236666666666665E-2</v>
+        <v>4.2333000000000003E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.10508333333333333</v>
+        <v>0.209206</v>
       </c>
       <c r="D13" s="4">
-        <v>0.20846000000000001</v>
+        <v>0.51688500000000004</v>
       </c>
       <c r="E13" s="4">
-        <v>0.35070000000000001</v>
+        <v>0.815612</v>
       </c>
       <c r="F13" s="4">
-        <v>0.51742333333333335</v>
+        <v>0.96518400000000004</v>
       </c>
       <c r="G13" s="4">
-        <v>0.68113666666666661</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.81593000000000004</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.90995999999999999</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.96531333333333336</v>
-      </c>
-      <c r="K13" s="4">
-        <v>4.5962433333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.54922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>19</v>
       </c>
       <c r="B14" s="4">
-        <v>3.4506666666666665E-2</v>
+        <v>3.4915000000000002E-2</v>
       </c>
       <c r="C14" s="4">
-        <v>9.3310000000000004E-2</v>
+        <v>0.19552800000000001</v>
       </c>
       <c r="D14" s="4">
-        <v>0.19565666666666667</v>
+        <v>0.51779600000000003</v>
       </c>
       <c r="E14" s="4">
-        <v>0.34365333333333331</v>
+        <v>0.82848999999999995</v>
       </c>
       <c r="F14" s="4">
-        <v>0.51755333333333331</v>
+        <v>0.97196099999999996</v>
       </c>
       <c r="G14" s="4">
-        <v>0.6890033333333333</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.82845666666666662</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.92178333333333329</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.97255999999999998</v>
-      </c>
-      <c r="K14" s="4">
-        <v>4.5964833333333335</v>
+        <v>2.5486900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4193,7 +3659,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A52" sqref="A52:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,10 +3687,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B2">
-        <v>90473</v>
+        <v>302852</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4233,1625 +3699,1065 @@
         <v>30</v>
       </c>
       <c r="E2" s="1">
-        <f>B2/A2</f>
-        <v>0.30157666666666666</v>
+        <f t="shared" ref="E2:E33" si="0">B2/A2</f>
+        <v>0.30285200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B3">
-        <v>106479</v>
+        <v>404145</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
-        <f>B3/A3</f>
-        <v>0.35493000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.40414499999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B4">
-        <v>121278</v>
+        <v>504656</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
-        <f>B4/A4</f>
-        <v>0.40426000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.50465599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B5">
-        <v>136585</v>
+        <v>606824</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1">
-        <f>B5/A5</f>
-        <v>0.45528333333333332</v>
+        <f t="shared" si="0"/>
+        <v>0.60682400000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B6">
-        <v>152255</v>
+        <v>706148</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1">
-        <f>B6/A6</f>
-        <v>0.50751666666666662</v>
+        <f t="shared" si="0"/>
+        <v>0.706148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B7">
-        <v>166160</v>
+        <v>220129</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
-        <f>B7/A7</f>
-        <v>0.55386666666666662</v>
+        <f t="shared" si="0"/>
+        <v>0.22012899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B8">
-        <v>181725</v>
+        <v>357964</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
-        <f>B8/A8</f>
-        <v>0.60575000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.357964</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B9">
-        <v>196889</v>
+        <v>507749</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
-        <f>B9/A9</f>
-        <v>0.65629666666666664</v>
+        <f t="shared" si="0"/>
+        <v>0.50774900000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B10">
-        <v>212207</v>
+        <v>657564</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
-        <f>B10/A10</f>
-        <v>0.70735666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.65756400000000004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B11">
-        <v>66081</v>
+        <v>792754</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1">
-        <f>B11/A11</f>
-        <v>0.22026999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.79275399999999996</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B12">
-        <v>86277</v>
+        <v>166922</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
-        <f>B12/A12</f>
-        <v>0.28759000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.16692199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B13">
-        <v>107517</v>
+        <v>325153</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5">
         <v>40</v>
       </c>
       <c r="E13" s="1">
-        <f>B13/A13</f>
-        <v>0.35838999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.32515300000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B14">
-        <v>129648</v>
+        <v>509049</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1">
-        <f>B14/A14</f>
-        <v>0.43215999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.50904899999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B15">
-        <v>152433</v>
+        <v>693499</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1">
-        <f>B15/A15</f>
-        <v>0.50810999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.69349899999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B16">
-        <v>174745</v>
+        <v>846327</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1">
-        <f>B16/A16</f>
-        <v>0.58248333333333335</v>
+        <f t="shared" si="0"/>
+        <v>0.84632700000000005</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B17">
-        <v>196776</v>
+        <v>131093</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
-        <f>B17/A17</f>
-        <v>0.65591999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.13109299999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B18">
-        <v>218715</v>
+        <v>298967</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
-        <f>B18/A18</f>
-        <v>0.72904999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.29896699999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B19">
-        <v>237863</v>
+        <v>511251</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19" s="5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1">
-        <f>B19/A19</f>
-        <v>0.79287666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.51125100000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B20">
-        <v>50092</v>
+        <v>721358</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1">
-        <f>B20/A20</f>
-        <v>0.16697333333333333</v>
+        <f t="shared" si="0"/>
+        <v>0.72135800000000005</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B21">
-        <v>72030</v>
+        <v>883426</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="5">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1">
-        <f>B21/A21</f>
-        <v>0.24010000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.88342600000000004</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B22">
-        <v>96949</v>
+        <v>102148</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
-        <f>B22/A22</f>
-        <v>0.32316333333333336</v>
+        <f t="shared" si="0"/>
+        <v>0.102148</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B23">
-        <v>124773</v>
+        <v>274946</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1">
-        <f>B23/A23</f>
-        <v>0.41591</v>
+        <f t="shared" si="0"/>
+        <v>0.27494600000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B24">
-        <v>152337</v>
+        <v>512783</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24" s="5">
         <v>50</v>
       </c>
       <c r="E24" s="1">
-        <f>B24/A24</f>
-        <v>0.50778999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.51278299999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B25">
-        <v>181030</v>
+        <v>745551</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D25" s="5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1">
-        <f>B25/A25</f>
-        <v>0.60343333333333338</v>
+        <f t="shared" si="0"/>
+        <v>0.74555099999999996</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B26">
-        <v>207963</v>
+        <v>909460</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1">
-        <f>B26/A26</f>
-        <v>0.69320999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.90946000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B27">
-        <v>232440</v>
+        <v>81501</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" s="5">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
-        <f>B27/A27</f>
-        <v>0.77480000000000004</v>
+        <f t="shared" si="0"/>
+        <v>8.1501000000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B28">
-        <v>253792</v>
+        <v>255285</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D28" s="5">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1">
-        <f>B28/A28</f>
-        <v>0.84597333333333335</v>
+        <f t="shared" si="0"/>
+        <v>0.25528499999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B29">
-        <v>39053</v>
+        <v>514382</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D29" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1">
-        <f>B29/A29</f>
-        <v>0.13017666666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.51438200000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B30">
-        <v>61506</v>
+        <v>765926</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D30" s="5">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1">
-        <f>B30/A30</f>
-        <v>0.20502000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.765926</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B31">
-        <v>89186</v>
+        <v>929635</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D31" s="5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1">
-        <f>B31/A31</f>
-        <v>0.29728666666666664</v>
+        <f t="shared" si="0"/>
+        <v>0.92963499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B32">
-        <v>120617</v>
+        <v>65193</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D32" s="5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1">
-        <f>B32/A32</f>
-        <v>0.40205666666666667</v>
+        <f t="shared" si="0"/>
+        <v>6.5193000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B33">
-        <v>153400</v>
+        <v>237881</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D33" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E33" s="1">
-        <f>B33/A33</f>
-        <v>0.51133333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.23788100000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B34">
-        <v>186122</v>
+        <v>514515</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D34" s="5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1">
-        <f>B34/A34</f>
-        <v>0.62040666666666666</v>
+        <f t="shared" ref="E34:E51" si="1">B34/A34</f>
+        <v>0.51451499999999994</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B35">
-        <v>216610</v>
+        <v>784920</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D35" s="5">
         <v>60</v>
       </c>
       <c r="E35" s="1">
-        <f>B35/A35</f>
-        <v>0.7220333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0.78491999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B36">
-        <v>242792</v>
+        <v>944754</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D36" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1">
-        <f>B36/A36</f>
-        <v>0.80930666666666662</v>
+        <f t="shared" si="1"/>
+        <v>0.94475399999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B37">
-        <v>264553</v>
+        <v>52910</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E37" s="1">
-        <f>B37/A37</f>
-        <v>0.88184333333333331</v>
+        <f t="shared" si="1"/>
+        <v>5.2909999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B38">
-        <v>30855</v>
+        <v>222854</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1">
-        <f>B38/A38</f>
-        <v>0.10285</v>
+        <f t="shared" si="1"/>
+        <v>0.222854</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B39">
-        <v>53571</v>
+        <v>515767</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1">
-        <f>B39/A39</f>
-        <v>0.17857000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.51576699999999998</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B40">
-        <v>82108</v>
+        <v>801395</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1">
-        <f>B40/A40</f>
-        <v>0.27369333333333334</v>
+        <f t="shared" si="1"/>
+        <v>0.80139499999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B41">
-        <v>116941</v>
+        <v>956222</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E41" s="1">
-        <f>B41/A41</f>
-        <v>0.38980333333333334</v>
+        <f t="shared" si="1"/>
+        <v>0.95622200000000002</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B42">
-        <v>153522</v>
+        <v>42333</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1">
-        <f>B42/A42</f>
-        <v>0.51173999999999997</v>
+        <f t="shared" si="1"/>
+        <v>4.2333000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B43">
-        <v>190812</v>
+        <v>209206</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E43" s="1">
-        <f>B43/A43</f>
-        <v>0.63604000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.209206</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B44">
-        <v>223650</v>
+        <v>516885</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1">
-        <f>B44/A44</f>
-        <v>0.74550000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.51688500000000004</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B45">
-        <v>252118</v>
+        <v>815612</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E45" s="1">
-        <f>B45/A45</f>
-        <v>0.84039333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0.815612</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B46">
-        <v>272594</v>
+        <v>965184</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="5">
         <v>70</v>
       </c>
       <c r="E46" s="1">
-        <f>B46/A46</f>
-        <v>0.90864666666666671</v>
+        <f t="shared" si="1"/>
+        <v>0.96518400000000004</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B47">
-        <v>24452</v>
+        <v>34915</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D47" s="5">
         <v>30</v>
       </c>
       <c r="E47" s="1">
-        <f>B47/A47</f>
-        <v>8.1506666666666672E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4915000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B48">
-        <v>46347</v>
+        <v>195528</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D48" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E48" s="1">
-        <f>B48/A48</f>
-        <v>0.15448999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.19552800000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B49">
-        <v>76789</v>
+        <v>517796</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D49" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E49" s="1">
-        <f>B49/A49</f>
-        <v>0.25596333333333332</v>
+        <f t="shared" si="1"/>
+        <v>0.51779600000000003</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B50">
-        <v>113629</v>
+        <v>828490</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D50" s="5">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1">
-        <f>B50/A50</f>
-        <v>0.37876333333333334</v>
+        <f t="shared" si="1"/>
+        <v>0.82848999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="B51">
-        <v>154219</v>
+        <v>971961</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D51" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1">
-        <f>B51/A51</f>
-        <v>0.51406333333333332</v>
+        <f t="shared" si="1"/>
+        <v>0.97196099999999996</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>300000</v>
-      </c>
-      <c r="B52">
-        <v>194211</v>
-      </c>
-      <c r="C52">
-        <v>11</v>
-      </c>
-      <c r="D52" s="5">
-        <v>55</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" ref="E52:E91" si="0">B52/A52</f>
-        <v>0.64737</v>
-      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>300000</v>
-      </c>
-      <c r="B53">
-        <v>229929</v>
-      </c>
-      <c r="C53">
-        <v>11</v>
-      </c>
-      <c r="D53" s="5">
-        <v>60</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76642999999999994</v>
-      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>300000</v>
-      </c>
-      <c r="B54">
-        <v>258865</v>
-      </c>
-      <c r="C54">
-        <v>11</v>
-      </c>
-      <c r="D54" s="5">
-        <v>65</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="0"/>
-        <v>0.86288333333333334</v>
-      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>300000</v>
-      </c>
-      <c r="B55">
-        <v>278868</v>
-      </c>
-      <c r="C55">
-        <v>11</v>
-      </c>
-      <c r="D55" s="5">
-        <v>70</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92956000000000005</v>
-      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>300000</v>
-      </c>
-      <c r="B56">
-        <v>19695</v>
-      </c>
-      <c r="C56">
-        <v>13</v>
-      </c>
-      <c r="D56" s="5">
-        <v>30</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="0"/>
-        <v>6.565E-2</v>
-      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>300000</v>
-      </c>
-      <c r="B57">
-        <v>40469</v>
-      </c>
-      <c r="C57">
-        <v>13</v>
-      </c>
-      <c r="D57" s="5">
-        <v>35</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13489666666666666</v>
-      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>300000</v>
-      </c>
-      <c r="B58">
-        <v>71114</v>
-      </c>
-      <c r="C58">
-        <v>13</v>
-      </c>
-      <c r="D58" s="5">
-        <v>40</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23704666666666666</v>
-      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>300000</v>
-      </c>
-      <c r="B59">
-        <v>110786</v>
-      </c>
-      <c r="C59">
-        <v>13</v>
-      </c>
-      <c r="D59" s="5">
-        <v>45</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36928666666666665</v>
-      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>300000</v>
-      </c>
-      <c r="B60">
-        <v>154250</v>
-      </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
-      <c r="D60" s="5">
-        <v>50</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51416666666666666</v>
-      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>300000</v>
-      </c>
-      <c r="B61">
-        <v>197908</v>
-      </c>
-      <c r="C61">
-        <v>13</v>
-      </c>
-      <c r="D61" s="5">
-        <v>55</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65969333333333335</v>
-      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>300000</v>
-      </c>
-      <c r="B62">
-        <v>235805</v>
-      </c>
-      <c r="C62">
-        <v>13</v>
-      </c>
-      <c r="D62" s="5">
-        <v>60</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7860166666666667</v>
-      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>300000</v>
-      </c>
-      <c r="B63">
-        <v>264437</v>
-      </c>
-      <c r="C63">
-        <v>13</v>
-      </c>
-      <c r="D63" s="5">
-        <v>65</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88145666666666667</v>
-      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>300000</v>
-      </c>
-      <c r="B64">
-        <v>283191</v>
-      </c>
-      <c r="C64">
-        <v>13</v>
-      </c>
-      <c r="D64" s="5">
-        <v>70</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94396999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>300000</v>
-      </c>
-      <c r="B65">
-        <v>15742</v>
-      </c>
-      <c r="C65">
-        <v>15</v>
-      </c>
-      <c r="D65" s="5">
-        <v>30</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="0"/>
-        <v>5.247333333333333E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>300000</v>
-      </c>
-      <c r="B66">
-        <v>35657</v>
-      </c>
-      <c r="C66">
-        <v>15</v>
-      </c>
-      <c r="D66" s="5">
-        <v>35</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11885666666666667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>300000</v>
-      </c>
-      <c r="B67">
-        <v>66999</v>
-      </c>
-      <c r="C67">
-        <v>15</v>
-      </c>
-      <c r="D67" s="5">
-        <v>40</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" si="0"/>
-        <v>0.22333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>300000</v>
-      </c>
-      <c r="B68">
-        <v>108157</v>
-      </c>
-      <c r="C68">
-        <v>15</v>
-      </c>
-      <c r="D68" s="5">
-        <v>45</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36052333333333331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>300000</v>
-      </c>
-      <c r="B69">
-        <v>154955</v>
-      </c>
-      <c r="C69">
-        <v>15</v>
-      </c>
-      <c r="D69" s="5">
-        <v>50</v>
-      </c>
-      <c r="E69" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51651666666666662</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>300000</v>
-      </c>
-      <c r="B70">
-        <v>201241</v>
-      </c>
-      <c r="C70">
-        <v>15</v>
-      </c>
-      <c r="D70" s="5">
-        <v>55</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="0"/>
-        <v>0.67080333333333331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>300000</v>
-      </c>
-      <c r="B71">
-        <v>240064</v>
-      </c>
-      <c r="C71">
-        <v>15</v>
-      </c>
-      <c r="D71" s="5">
-        <v>60</v>
-      </c>
-      <c r="E71" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80021333333333333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>300000</v>
-      </c>
-      <c r="B72">
-        <v>269001</v>
-      </c>
-      <c r="C72">
-        <v>15</v>
-      </c>
-      <c r="D72" s="5">
-        <v>65</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89666999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>300000</v>
-      </c>
-      <c r="B73">
-        <v>286562</v>
-      </c>
-      <c r="C73">
-        <v>15</v>
-      </c>
-      <c r="D73" s="5">
-        <v>70</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95520666666666665</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>300000</v>
-      </c>
-      <c r="B74">
-        <v>12671</v>
-      </c>
-      <c r="C74">
-        <v>17</v>
-      </c>
-      <c r="D74" s="5">
-        <v>30</v>
-      </c>
-      <c r="E74" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2236666666666665E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>300000</v>
-      </c>
-      <c r="B75">
-        <v>31525</v>
-      </c>
-      <c r="C75">
-        <v>17</v>
-      </c>
-      <c r="D75" s="5">
-        <v>35</v>
-      </c>
-      <c r="E75" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10508333333333333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>300000</v>
-      </c>
-      <c r="B76">
-        <v>62538</v>
-      </c>
-      <c r="C76">
-        <v>17</v>
-      </c>
-      <c r="D76" s="5">
-        <v>40</v>
-      </c>
-      <c r="E76" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20846000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>300000</v>
-      </c>
-      <c r="B77">
-        <v>105210</v>
-      </c>
-      <c r="C77">
-        <v>17</v>
-      </c>
-      <c r="D77" s="5">
-        <v>45</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35070000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>300000</v>
-      </c>
-      <c r="B78">
-        <v>155227</v>
-      </c>
-      <c r="C78">
-        <v>17</v>
-      </c>
-      <c r="D78" s="5">
-        <v>50</v>
-      </c>
-      <c r="E78" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51742333333333335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>300000</v>
-      </c>
-      <c r="B79">
-        <v>204341</v>
-      </c>
-      <c r="C79">
-        <v>17</v>
-      </c>
-      <c r="D79" s="5">
-        <v>55</v>
-      </c>
-      <c r="E79" s="1">
-        <f t="shared" si="0"/>
-        <v>0.68113666666666661</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>300000</v>
-      </c>
-      <c r="B80">
-        <v>244779</v>
-      </c>
-      <c r="C80">
-        <v>17</v>
-      </c>
-      <c r="D80" s="5">
-        <v>60</v>
-      </c>
-      <c r="E80" s="1">
-        <f t="shared" si="0"/>
-        <v>0.81593000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>300000</v>
-      </c>
-      <c r="B81">
-        <v>272988</v>
-      </c>
-      <c r="C81">
-        <v>17</v>
-      </c>
-      <c r="D81" s="5">
-        <v>65</v>
-      </c>
-      <c r="E81" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90995999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>300000</v>
-      </c>
-      <c r="B82">
-        <v>289594</v>
-      </c>
-      <c r="C82">
-        <v>17</v>
-      </c>
-      <c r="D82" s="5">
-        <v>70</v>
-      </c>
-      <c r="E82" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96531333333333336</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>300000</v>
-      </c>
-      <c r="B83">
-        <v>10352</v>
-      </c>
-      <c r="C83">
-        <v>19</v>
-      </c>
-      <c r="D83" s="5">
-        <v>30</v>
-      </c>
-      <c r="E83" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4506666666666665E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>300000</v>
-      </c>
-      <c r="B84">
-        <v>27993</v>
-      </c>
-      <c r="C84">
-        <v>19</v>
-      </c>
-      <c r="D84" s="5">
-        <v>35</v>
-      </c>
-      <c r="E84" s="1">
-        <f t="shared" si="0"/>
-        <v>9.3310000000000004E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>300000</v>
-      </c>
-      <c r="B85">
-        <v>58697</v>
-      </c>
-      <c r="C85">
-        <v>19</v>
-      </c>
-      <c r="D85" s="5">
-        <v>40</v>
-      </c>
-      <c r="E85" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19565666666666667</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>300000</v>
-      </c>
-      <c r="B86">
-        <v>103096</v>
-      </c>
-      <c r="C86">
-        <v>19</v>
-      </c>
-      <c r="D86" s="5">
-        <v>45</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34365333333333331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>300000</v>
-      </c>
-      <c r="B87">
-        <v>155266</v>
-      </c>
-      <c r="C87">
-        <v>19</v>
-      </c>
-      <c r="D87" s="5">
-        <v>50</v>
-      </c>
-      <c r="E87" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51755333333333331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>300000</v>
-      </c>
-      <c r="B88">
-        <v>206701</v>
-      </c>
-      <c r="C88">
-        <v>19</v>
-      </c>
-      <c r="D88" s="5">
-        <v>55</v>
-      </c>
-      <c r="E88" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6890033333333333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>300000</v>
-      </c>
-      <c r="B89">
-        <v>248537</v>
-      </c>
-      <c r="C89">
-        <v>19</v>
-      </c>
-      <c r="D89" s="5">
-        <v>60</v>
-      </c>
-      <c r="E89" s="1">
-        <f t="shared" si="0"/>
-        <v>0.82845666666666662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>300000</v>
-      </c>
-      <c r="B90">
-        <v>276535</v>
-      </c>
-      <c r="C90">
-        <v>19</v>
-      </c>
-      <c r="D90" s="5">
-        <v>65</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92178333333333329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>300000</v>
-      </c>
-      <c r="B91">
-        <v>291768</v>
-      </c>
-      <c r="C91">
-        <v>19</v>
-      </c>
-      <c r="D91" s="5">
-        <v>70</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97255999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="5"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="5"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="5"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="5"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="5"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="5"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="5"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="5"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="5"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="5"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="5"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="5"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="5"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="5"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="5"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="5"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="5"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="5"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="5"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="5"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="5"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="5"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="5"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="5"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="5"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="5"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="5"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="5"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
